--- a/UnitTest.xlsx
+++ b/UnitTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SomNum\Somnum-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E73D41-089A-48C4-93FD-7811A06FA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB096039-6A61-4160-AEBE-9F4571E26672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA5DE466-EBC5-4C3C-8120-7DE5DA4718F5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Unit Test</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>deleteNodeAtIndex</t>
-  </si>
-  <si>
-    <t>InitTestFile</t>
-  </si>
-  <si>
-    <t>mergeList</t>
-  </si>
-  <si>
-    <t>splitListInMiddle</t>
-  </si>
-  <si>
-    <t>sortList</t>
   </si>
   <si>
     <t>updateEventList</t>
@@ -511,7 +499,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,60 +567,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
